--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.456931</v>
+        <v>3.637404333333333</v>
       </c>
       <c r="H2">
-        <v>7.370793</v>
+        <v>10.912213</v>
       </c>
       <c r="I2">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492456</v>
       </c>
       <c r="J2">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492457</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.685941</v>
+        <v>0.7945063333333332</v>
       </c>
       <c r="N2">
-        <v>2.057823</v>
+        <v>2.383519</v>
       </c>
       <c r="O2">
-        <v>0.2488083256637031</v>
+        <v>0.3164312048730681</v>
       </c>
       <c r="P2">
-        <v>0.2488083256637031</v>
+        <v>0.316431204873068</v>
       </c>
       <c r="Q2">
-        <v>1.685309707071</v>
+        <v>2.889940779727444</v>
       </c>
       <c r="R2">
-        <v>15.167787363639</v>
+        <v>26.009467017547</v>
       </c>
       <c r="S2">
-        <v>0.003055259986915954</v>
+        <v>0.0216408759111623</v>
       </c>
       <c r="T2">
-        <v>0.003055259986915954</v>
+        <v>0.0216408759111623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.456931</v>
+        <v>3.637404333333333</v>
       </c>
       <c r="H3">
-        <v>7.370793</v>
+        <v>10.912213</v>
       </c>
       <c r="I3">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492456</v>
       </c>
       <c r="J3">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492457</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2049633333333333</v>
+        <v>0.2049633333333334</v>
       </c>
       <c r="N3">
-        <v>0.6148899999999999</v>
+        <v>0.61489</v>
       </c>
       <c r="O3">
-        <v>0.07434543756550219</v>
+        <v>0.08163156390379137</v>
       </c>
       <c r="P3">
-        <v>0.07434543756550217</v>
+        <v>0.08163156390379135</v>
       </c>
       <c r="Q3">
-        <v>0.5035807675299999</v>
+        <v>0.7455345168411112</v>
       </c>
       <c r="R3">
-        <v>4.532226907769999</v>
+        <v>6.70981065157</v>
       </c>
       <c r="S3">
-        <v>0.0009129302244919755</v>
+        <v>0.005582820270790622</v>
       </c>
       <c r="T3">
-        <v>0.0009129302244919754</v>
+        <v>0.005582820270790622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.456931</v>
+        <v>3.637404333333333</v>
       </c>
       <c r="H4">
-        <v>7.370793</v>
+        <v>10.912213</v>
       </c>
       <c r="I4">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492456</v>
       </c>
       <c r="J4">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492457</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07768266666666666</v>
+        <v>0.2708436666666666</v>
       </c>
       <c r="N4">
-        <v>0.233048</v>
+        <v>0.812531</v>
       </c>
       <c r="O4">
-        <v>0.02817748789826661</v>
+        <v>0.1078699869087341</v>
       </c>
       <c r="P4">
-        <v>0.02817748789826661</v>
+        <v>0.107869986908734</v>
       </c>
       <c r="Q4">
-        <v>0.190860951896</v>
+        <v>0.985167926789222</v>
       </c>
       <c r="R4">
-        <v>1.717748567064</v>
+        <v>8.866511341102999</v>
       </c>
       <c r="S4">
-        <v>0.0003460075183486574</v>
+        <v>0.007377278110630802</v>
       </c>
       <c r="T4">
-        <v>0.0003460075183486574</v>
+        <v>0.007377278110630802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.456931</v>
+        <v>3.637404333333333</v>
       </c>
       <c r="H5">
-        <v>7.370793</v>
+        <v>10.912213</v>
       </c>
       <c r="I5">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492456</v>
       </c>
       <c r="J5">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3170793333333333</v>
+        <v>1.017517666666667</v>
       </c>
       <c r="N5">
-        <v>0.9512379999999999</v>
+        <v>3.052553</v>
       </c>
       <c r="O5">
-        <v>0.1150127751938285</v>
+        <v>0.4052508176896844</v>
       </c>
       <c r="P5">
-        <v>0.1150127751938284</v>
+        <v>0.4052508176896843</v>
       </c>
       <c r="Q5">
-        <v>0.7790420435259999</v>
+        <v>3.701123169976555</v>
       </c>
       <c r="R5">
-        <v>7.011378391734</v>
+        <v>33.310108529789</v>
       </c>
       <c r="S5">
-        <v>0.001412307763803766</v>
+        <v>0.02771529015931748</v>
       </c>
       <c r="T5">
-        <v>0.001412307763803766</v>
+        <v>0.02771529015931748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.456931</v>
+        <v>3.637404333333333</v>
       </c>
       <c r="H6">
-        <v>7.370793</v>
+        <v>10.912213</v>
       </c>
       <c r="I6">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492456</v>
       </c>
       <c r="J6">
-        <v>0.01227957295547069</v>
+        <v>0.06839046079492457</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.471239</v>
+        <v>0.2230033333333333</v>
       </c>
       <c r="N6">
-        <v>4.413717</v>
+        <v>0.66901</v>
       </c>
       <c r="O6">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472224</v>
       </c>
       <c r="P6">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472222</v>
       </c>
       <c r="Q6">
-        <v>3.614732707509</v>
+        <v>0.8111532910144443</v>
       </c>
       <c r="R6">
-        <v>32.532594367581</v>
+        <v>7.300379619129999</v>
       </c>
       <c r="S6">
-        <v>0.00655306746191034</v>
+        <v>0.006074196343023359</v>
       </c>
       <c r="T6">
-        <v>0.00655306746191034</v>
+        <v>0.00607419634302336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>10.82748</v>
       </c>
       <c r="I7">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979613</v>
       </c>
       <c r="J7">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979614</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.685941</v>
+        <v>0.7945063333333332</v>
       </c>
       <c r="N7">
-        <v>2.057823</v>
+        <v>2.383519</v>
       </c>
       <c r="O7">
-        <v>0.2488083256637031</v>
+        <v>0.3164312048730681</v>
       </c>
       <c r="P7">
-        <v>0.2488083256637031</v>
+        <v>0.316431204873068</v>
       </c>
       <c r="Q7">
-        <v>2.47567081956</v>
+        <v>2.867500478013333</v>
       </c>
       <c r="R7">
-        <v>22.28103737604</v>
+        <v>25.80750430211999</v>
       </c>
       <c r="S7">
-        <v>0.004488087835750203</v>
+        <v>0.02147283517198497</v>
       </c>
       <c r="T7">
-        <v>0.004488087835750203</v>
+        <v>0.02147283517198497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.82748</v>
       </c>
       <c r="I8">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979613</v>
       </c>
       <c r="J8">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979614</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2049633333333333</v>
+        <v>0.2049633333333334</v>
       </c>
       <c r="N8">
-        <v>0.6148899999999999</v>
+        <v>0.61489</v>
       </c>
       <c r="O8">
-        <v>0.07434543756550219</v>
+        <v>0.08163156390379137</v>
       </c>
       <c r="P8">
-        <v>0.07434543756550217</v>
+        <v>0.08163156390379135</v>
       </c>
       <c r="Q8">
-        <v>0.7397454641333332</v>
+        <v>0.7397454641333333</v>
       </c>
       <c r="R8">
-        <v>6.657709177199999</v>
+        <v>6.6577091772</v>
       </c>
       <c r="S8">
-        <v>0.001341067880631348</v>
+        <v>0.005539469842238237</v>
       </c>
       <c r="T8">
-        <v>0.001341067880631348</v>
+        <v>0.005539469842238237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.82748</v>
       </c>
       <c r="I9">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979613</v>
       </c>
       <c r="J9">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979614</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07768266666666666</v>
+        <v>0.2708436666666666</v>
       </c>
       <c r="N9">
-        <v>0.233048</v>
+        <v>0.812531</v>
       </c>
       <c r="O9">
-        <v>0.02817748789826661</v>
+        <v>0.1078699869087341</v>
       </c>
       <c r="P9">
-        <v>0.02817748789826661</v>
+        <v>0.107869986908734</v>
       </c>
       <c r="Q9">
-        <v>0.2803691732266667</v>
+        <v>0.9775181279866665</v>
       </c>
       <c r="R9">
-        <v>2.52332255904</v>
+        <v>8.79766315188</v>
       </c>
       <c r="S9">
-        <v>0.0005082749555942922</v>
+        <v>0.007319993771867613</v>
       </c>
       <c r="T9">
-        <v>0.0005082749555942922</v>
+        <v>0.007319993771867614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>10.82748</v>
       </c>
       <c r="I10">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979613</v>
       </c>
       <c r="J10">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3170793333333333</v>
+        <v>1.017517666666667</v>
       </c>
       <c r="N10">
-        <v>0.9512379999999999</v>
+        <v>3.052553</v>
       </c>
       <c r="O10">
-        <v>0.1150127751938285</v>
+        <v>0.4052508176896844</v>
       </c>
       <c r="P10">
-        <v>0.1150127751938284</v>
+        <v>0.4052508176896843</v>
       </c>
       <c r="Q10">
-        <v>1.144390046693333</v>
+        <v>3.672384061826667</v>
       </c>
       <c r="R10">
-        <v>10.29951042024</v>
+        <v>33.05145655644</v>
       </c>
       <c r="S10">
-        <v>0.002074638925069528</v>
+        <v>0.02750008177939771</v>
       </c>
       <c r="T10">
-        <v>0.002074638925069528</v>
+        <v>0.02750008177939771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>10.82748</v>
       </c>
       <c r="I11">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979613</v>
       </c>
       <c r="J11">
-        <v>0.0180383346247683</v>
+        <v>0.06785941095979614</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.471239</v>
+        <v>0.2230033333333333</v>
       </c>
       <c r="N11">
-        <v>4.413717</v>
+        <v>0.66901</v>
       </c>
       <c r="O11">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472224</v>
       </c>
       <c r="P11">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472222</v>
       </c>
       <c r="Q11">
-        <v>5.309936949239999</v>
+        <v>0.8048547105333332</v>
       </c>
       <c r="R11">
-        <v>47.78943254316</v>
+        <v>7.2436923948</v>
       </c>
       <c r="S11">
-        <v>0.009626265027722928</v>
+        <v>0.006027030394307605</v>
       </c>
       <c r="T11">
-        <v>0.009626265027722928</v>
+        <v>0.006027030394307605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.52137133333333</v>
+        <v>12.179716</v>
       </c>
       <c r="H12">
-        <v>208.564114</v>
+        <v>36.539148</v>
       </c>
       <c r="I12">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="J12">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.685941</v>
+        <v>0.7945063333333332</v>
       </c>
       <c r="N12">
-        <v>2.057823</v>
+        <v>2.383519</v>
       </c>
       <c r="O12">
-        <v>0.2488083256637031</v>
+        <v>0.3164312048730681</v>
       </c>
       <c r="P12">
-        <v>0.2488083256637031</v>
+        <v>0.316431204873068</v>
       </c>
       <c r="Q12">
-        <v>47.687558973758</v>
+        <v>9.676861500201332</v>
       </c>
       <c r="R12">
-        <v>429.188030763822</v>
+        <v>87.09175350181198</v>
       </c>
       <c r="S12">
-        <v>0.08645170095141426</v>
+        <v>0.07246368520918665</v>
       </c>
       <c r="T12">
-        <v>0.08645170095141425</v>
+        <v>0.07246368520918664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.52137133333333</v>
+        <v>12.179716</v>
       </c>
       <c r="H13">
-        <v>208.564114</v>
+        <v>36.539148</v>
       </c>
       <c r="I13">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="J13">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2049633333333333</v>
+        <v>0.2049633333333334</v>
       </c>
       <c r="N13">
-        <v>0.6148899999999999</v>
+        <v>0.61489</v>
       </c>
       <c r="O13">
-        <v>0.07434543756550219</v>
+        <v>0.08163156390379137</v>
       </c>
       <c r="P13">
-        <v>0.07434543756550217</v>
+        <v>0.08163156390379135</v>
       </c>
       <c r="Q13">
-        <v>14.24933200638444</v>
+        <v>2.496395190413333</v>
       </c>
       <c r="R13">
-        <v>128.24398805746</v>
+        <v>22.46755671372</v>
       </c>
       <c r="S13">
-        <v>0.02583229286387367</v>
+        <v>0.01869387044880984</v>
       </c>
       <c r="T13">
-        <v>0.02583229286387366</v>
+        <v>0.01869387044880984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>69.52137133333333</v>
+        <v>12.179716</v>
       </c>
       <c r="H14">
-        <v>208.564114</v>
+        <v>36.539148</v>
       </c>
       <c r="I14">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="J14">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.07768266666666666</v>
+        <v>0.2708436666666666</v>
       </c>
       <c r="N14">
-        <v>0.233048</v>
+        <v>0.812531</v>
       </c>
       <c r="O14">
-        <v>0.02817748789826661</v>
+        <v>0.1078699869087341</v>
       </c>
       <c r="P14">
-        <v>0.02817748789826661</v>
+        <v>0.107869986908734</v>
       </c>
       <c r="Q14">
-        <v>5.400605515496888</v>
+        <v>3.298798940398666</v>
       </c>
       <c r="R14">
-        <v>48.605449639472</v>
+        <v>29.689190463588</v>
       </c>
       <c r="S14">
-        <v>0.009790636028135164</v>
+        <v>0.0247025472029825</v>
       </c>
       <c r="T14">
-        <v>0.009790636028135164</v>
+        <v>0.0247025472029825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>69.52137133333333</v>
+        <v>12.179716</v>
       </c>
       <c r="H15">
-        <v>208.564114</v>
+        <v>36.539148</v>
       </c>
       <c r="I15">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="J15">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.3170793333333333</v>
+        <v>1.017517666666667</v>
       </c>
       <c r="N15">
-        <v>0.9512379999999999</v>
+        <v>3.052553</v>
       </c>
       <c r="O15">
-        <v>0.1150127751938285</v>
+        <v>0.4052508176896844</v>
       </c>
       <c r="P15">
-        <v>0.1150127751938284</v>
+        <v>0.4052508176896843</v>
       </c>
       <c r="Q15">
-        <v>22.04379007479244</v>
+        <v>12.39307620498267</v>
       </c>
       <c r="R15">
-        <v>198.394110673132</v>
+        <v>111.537685844844</v>
       </c>
       <c r="S15">
-        <v>0.0399626902360511</v>
+        <v>0.09280364019601203</v>
       </c>
       <c r="T15">
-        <v>0.03996269023605109</v>
+        <v>0.09280364019601202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>69.52137133333333</v>
+        <v>12.179716</v>
       </c>
       <c r="H16">
-        <v>208.564114</v>
+        <v>36.539148</v>
       </c>
       <c r="I16">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="J16">
-        <v>0.3474630550276078</v>
+        <v>0.2290029683964148</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.471239</v>
+        <v>0.2230033333333333</v>
       </c>
       <c r="N16">
-        <v>4.413717</v>
+        <v>0.66901</v>
       </c>
       <c r="O16">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472224</v>
       </c>
       <c r="P16">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472222</v>
       </c>
       <c r="Q16">
-        <v>102.282552839082</v>
+        <v>2.716117267053333</v>
       </c>
       <c r="R16">
-        <v>920.542975551738</v>
+        <v>24.44505540348</v>
       </c>
       <c r="S16">
-        <v>0.1854257349481337</v>
+        <v>0.02033922533942376</v>
       </c>
       <c r="T16">
-        <v>0.1854257349481337</v>
+        <v>0.02033922533942376</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6058386666666666</v>
+        <v>0.3283613333333333</v>
       </c>
       <c r="H17">
-        <v>1.817516</v>
+        <v>0.9850840000000001</v>
       </c>
       <c r="I17">
-        <v>0.003027940184961818</v>
+        <v>0.00617384839186217</v>
       </c>
       <c r="J17">
-        <v>0.003027940184961818</v>
+        <v>0.006173848391862171</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.685941</v>
+        <v>0.7945063333333332</v>
       </c>
       <c r="N17">
-        <v>2.057823</v>
+        <v>2.383519</v>
       </c>
       <c r="O17">
-        <v>0.2488083256637031</v>
+        <v>0.3164312048730681</v>
       </c>
       <c r="P17">
-        <v>0.2488083256637031</v>
+        <v>0.316431204873068</v>
       </c>
       <c r="Q17">
-        <v>0.415569580852</v>
+        <v>0.2608851589551111</v>
       </c>
       <c r="R17">
-        <v>3.740126227668</v>
+        <v>2.347966430596</v>
       </c>
       <c r="S17">
-        <v>0.0007533767276301934</v>
+        <v>0.001953598285340601</v>
       </c>
       <c r="T17">
-        <v>0.0007533767276301934</v>
+        <v>0.0019535982853406</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6058386666666666</v>
+        <v>0.3283613333333333</v>
       </c>
       <c r="H18">
-        <v>1.817516</v>
+        <v>0.9850840000000001</v>
       </c>
       <c r="I18">
-        <v>0.003027940184961818</v>
+        <v>0.00617384839186217</v>
       </c>
       <c r="J18">
-        <v>0.003027940184961818</v>
+        <v>0.006173848391862171</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2049633333333333</v>
+        <v>0.2049633333333334</v>
       </c>
       <c r="N18">
-        <v>0.6148899999999999</v>
+        <v>0.61489</v>
       </c>
       <c r="O18">
-        <v>0.07434543756550219</v>
+        <v>0.08163156390379137</v>
       </c>
       <c r="P18">
-        <v>0.07434543756550217</v>
+        <v>0.08163156390379135</v>
       </c>
       <c r="Q18">
-        <v>0.1241747125822222</v>
+        <v>0.06730203341777778</v>
       </c>
       <c r="R18">
-        <v>1.11757241324</v>
+        <v>0.6057183007600001</v>
       </c>
       <c r="S18">
-        <v>0.000225113537973154</v>
+        <v>0.0005039808995326163</v>
       </c>
       <c r="T18">
-        <v>0.0002251135379731539</v>
+        <v>0.0005039808995326163</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6058386666666666</v>
+        <v>0.3283613333333333</v>
       </c>
       <c r="H19">
-        <v>1.817516</v>
+        <v>0.9850840000000001</v>
       </c>
       <c r="I19">
-        <v>0.003027940184961818</v>
+        <v>0.00617384839186217</v>
       </c>
       <c r="J19">
-        <v>0.003027940184961818</v>
+        <v>0.006173848391862171</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.07768266666666666</v>
+        <v>0.2708436666666666</v>
       </c>
       <c r="N19">
-        <v>0.233048</v>
+        <v>0.812531</v>
       </c>
       <c r="O19">
-        <v>0.02817748789826661</v>
+        <v>0.1078699869087341</v>
       </c>
       <c r="P19">
-        <v>0.02817748789826661</v>
+        <v>0.107869986908734</v>
       </c>
       <c r="Q19">
-        <v>0.04706316319644444</v>
+        <v>0.08893458751155556</v>
       </c>
       <c r="R19">
-        <v>0.423568468768</v>
+        <v>0.800411287604</v>
       </c>
       <c r="S19">
-        <v>8.531974791843678E-05</v>
+        <v>0.0006659729452066812</v>
       </c>
       <c r="T19">
-        <v>8.531974791843678E-05</v>
+        <v>0.0006659729452066812</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6058386666666666</v>
+        <v>0.3283613333333333</v>
       </c>
       <c r="H20">
-        <v>1.817516</v>
+        <v>0.9850840000000001</v>
       </c>
       <c r="I20">
-        <v>0.003027940184961818</v>
+        <v>0.00617384839186217</v>
       </c>
       <c r="J20">
-        <v>0.003027940184961818</v>
+        <v>0.006173848391862171</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.3170793333333333</v>
+        <v>1.017517666666667</v>
       </c>
       <c r="N20">
-        <v>0.9512379999999999</v>
+        <v>3.052553</v>
       </c>
       <c r="O20">
-        <v>0.1150127751938285</v>
+        <v>0.4052508176896844</v>
       </c>
       <c r="P20">
-        <v>0.1150127751938284</v>
+        <v>0.4052508176896843</v>
       </c>
       <c r="Q20">
-        <v>0.1920989205342222</v>
+        <v>0.3341134577168889</v>
       </c>
       <c r="R20">
-        <v>1.728890284808</v>
+        <v>3.007021119452</v>
       </c>
       <c r="S20">
-        <v>0.0003482518037933729</v>
+        <v>0.002501957109094288</v>
       </c>
       <c r="T20">
-        <v>0.0003482518037933728</v>
+        <v>0.002501957109094287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6058386666666666</v>
+        <v>0.3283613333333333</v>
       </c>
       <c r="H21">
-        <v>1.817516</v>
+        <v>0.9850840000000001</v>
       </c>
       <c r="I21">
-        <v>0.003027940184961818</v>
+        <v>0.00617384839186217</v>
       </c>
       <c r="J21">
-        <v>0.003027940184961818</v>
+        <v>0.006173848391862171</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.471239</v>
+        <v>0.2230033333333333</v>
       </c>
       <c r="N21">
-        <v>4.413717</v>
+        <v>0.66901</v>
       </c>
       <c r="O21">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472224</v>
       </c>
       <c r="P21">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472222</v>
       </c>
       <c r="Q21">
-        <v>0.8913334741079999</v>
+        <v>0.07322567187111111</v>
       </c>
       <c r="R21">
-        <v>8.022001266972</v>
+        <v>0.65903104684</v>
       </c>
       <c r="S21">
-        <v>0.001615878367646661</v>
+        <v>0.0005483391526879859</v>
       </c>
       <c r="T21">
-        <v>0.001615878367646661</v>
+        <v>0.0005483391526879859</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.741056666666666</v>
+        <v>6.021351333333333</v>
       </c>
       <c r="H22">
-        <v>20.22317</v>
+        <v>18.064054</v>
       </c>
       <c r="I22">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430978</v>
       </c>
       <c r="J22">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430979</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.685941</v>
+        <v>0.7945063333333332</v>
       </c>
       <c r="N22">
-        <v>2.057823</v>
+        <v>2.383519</v>
       </c>
       <c r="O22">
-        <v>0.2488083256637031</v>
+        <v>0.3164312048730681</v>
       </c>
       <c r="P22">
-        <v>0.2488083256637031</v>
+        <v>0.316431204873068</v>
       </c>
       <c r="Q22">
-        <v>4.62396715099</v>
+        <v>4.784001769558443</v>
       </c>
       <c r="R22">
-        <v>41.61570435891</v>
+        <v>43.05601592602599</v>
       </c>
       <c r="S22">
-        <v>0.00838268583985456</v>
+        <v>0.03582425957654374</v>
       </c>
       <c r="T22">
-        <v>0.008382685839854558</v>
+        <v>0.03582425957654373</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.741056666666666</v>
+        <v>6.021351333333333</v>
       </c>
       <c r="H23">
-        <v>20.22317</v>
+        <v>18.064054</v>
       </c>
       <c r="I23">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430978</v>
       </c>
       <c r="J23">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430979</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.2049633333333333</v>
+        <v>0.2049633333333334</v>
       </c>
       <c r="N23">
-        <v>0.6148899999999999</v>
+        <v>0.61489</v>
       </c>
       <c r="O23">
-        <v>0.07434543756550219</v>
+        <v>0.08163156390379137</v>
       </c>
       <c r="P23">
-        <v>0.07434543756550217</v>
+        <v>0.08163156390379135</v>
       </c>
       <c r="Q23">
-        <v>1.381669444588889</v>
+        <v>1.234156240451111</v>
       </c>
       <c r="R23">
-        <v>12.4350250013</v>
+        <v>11.10740616406</v>
       </c>
       <c r="S23">
-        <v>0.002504797398060071</v>
+        <v>0.009241788704441201</v>
       </c>
       <c r="T23">
-        <v>0.002504797398060071</v>
+        <v>0.009241788704441201</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.741056666666666</v>
+        <v>6.021351333333333</v>
       </c>
       <c r="H24">
-        <v>20.22317</v>
+        <v>18.064054</v>
       </c>
       <c r="I24">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430978</v>
       </c>
       <c r="J24">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430979</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.07768266666666666</v>
+        <v>0.2708436666666666</v>
       </c>
       <c r="N24">
-        <v>0.233048</v>
+        <v>0.812531</v>
       </c>
       <c r="O24">
-        <v>0.02817748789826661</v>
+        <v>0.1078699869087341</v>
       </c>
       <c r="P24">
-        <v>0.02817748789826661</v>
+        <v>0.107869986908734</v>
       </c>
       <c r="Q24">
-        <v>0.5236632580177777</v>
+        <v>1.630844873408222</v>
       </c>
       <c r="R24">
-        <v>4.71296932216</v>
+        <v>14.677603860674</v>
       </c>
       <c r="S24">
-        <v>0.0009493373189076151</v>
+        <v>0.01221233036446895</v>
       </c>
       <c r="T24">
-        <v>0.0009493373189076151</v>
+        <v>0.01221233036446895</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.741056666666666</v>
+        <v>6.021351333333333</v>
       </c>
       <c r="H25">
-        <v>20.22317</v>
+        <v>18.064054</v>
       </c>
       <c r="I25">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430978</v>
       </c>
       <c r="J25">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430979</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.3170793333333333</v>
+        <v>1.017517666666667</v>
       </c>
       <c r="N25">
-        <v>0.9512379999999999</v>
+        <v>3.052553</v>
       </c>
       <c r="O25">
-        <v>0.1150127751938285</v>
+        <v>0.4052508176896844</v>
       </c>
       <c r="P25">
-        <v>0.1150127751938284</v>
+        <v>0.4052508176896843</v>
       </c>
       <c r="Q25">
-        <v>2.137449753828889</v>
+        <v>6.126831358873555</v>
       </c>
       <c r="R25">
-        <v>19.23704778446</v>
+        <v>55.141482229862</v>
       </c>
       <c r="S25">
-        <v>0.003874934488015525</v>
+        <v>0.04587983189693783</v>
       </c>
       <c r="T25">
-        <v>0.003874934488015524</v>
+        <v>0.04587983189693782</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.741056666666666</v>
+        <v>6.021351333333333</v>
       </c>
       <c r="H26">
-        <v>20.22317</v>
+        <v>18.064054</v>
       </c>
       <c r="I26">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430978</v>
       </c>
       <c r="J26">
-        <v>0.03369133977930003</v>
+        <v>0.1132134221430979</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>1.471239</v>
+        <v>0.2230033333333333</v>
       </c>
       <c r="N26">
-        <v>4.413717</v>
+        <v>0.66901</v>
       </c>
       <c r="O26">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472224</v>
       </c>
       <c r="P26">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472222</v>
       </c>
       <c r="Q26">
-        <v>9.917705469209999</v>
+        <v>1.342781418504444</v>
       </c>
       <c r="R26">
-        <v>89.25934922288999</v>
+        <v>12.08503276654</v>
       </c>
       <c r="S26">
-        <v>0.01797958473446227</v>
+        <v>0.01005521160070615</v>
       </c>
       <c r="T26">
-        <v>0.01797958473446227</v>
+        <v>0.01005521160070615</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>117.1484146666667</v>
+        <v>27.40985033333333</v>
       </c>
       <c r="H27">
-        <v>351.445244</v>
+        <v>82.229551</v>
       </c>
       <c r="I27">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="J27">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.685941</v>
+        <v>0.7945063333333332</v>
       </c>
       <c r="N27">
-        <v>2.057823</v>
+        <v>2.383519</v>
       </c>
       <c r="O27">
-        <v>0.2488083256637031</v>
+        <v>0.3164312048730681</v>
       </c>
       <c r="P27">
-        <v>0.2488083256637031</v>
+        <v>0.316431204873068</v>
       </c>
       <c r="Q27">
-        <v>80.356900704868</v>
+        <v>21.77729968555211</v>
       </c>
       <c r="R27">
-        <v>723.212106343812</v>
+        <v>195.995697169969</v>
       </c>
       <c r="S27">
-        <v>0.145677214322138</v>
+        <v>0.1630759507188498</v>
       </c>
       <c r="T27">
-        <v>0.145677214322138</v>
+        <v>0.1630759507188498</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>117.1484146666667</v>
+        <v>27.40985033333333</v>
       </c>
       <c r="H28">
-        <v>351.445244</v>
+        <v>82.229551</v>
       </c>
       <c r="I28">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="J28">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.2049633333333333</v>
+        <v>0.2049633333333334</v>
       </c>
       <c r="N28">
-        <v>0.6148899999999999</v>
+        <v>0.61489</v>
       </c>
       <c r="O28">
-        <v>0.07434543756550219</v>
+        <v>0.08163156390379137</v>
       </c>
       <c r="P28">
-        <v>0.07434543756550217</v>
+        <v>0.08163156390379135</v>
       </c>
       <c r="Q28">
-        <v>24.01112956479555</v>
+        <v>5.618014290487778</v>
       </c>
       <c r="R28">
-        <v>216.10016608316</v>
+        <v>50.56212861439001</v>
       </c>
       <c r="S28">
-        <v>0.04352923566047197</v>
+        <v>0.04206963373797884</v>
       </c>
       <c r="T28">
-        <v>0.04352923566047196</v>
+        <v>0.04206963373797883</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>117.1484146666667</v>
+        <v>27.40985033333333</v>
       </c>
       <c r="H29">
-        <v>351.445244</v>
+        <v>82.229551</v>
       </c>
       <c r="I29">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="J29">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.07768266666666666</v>
+        <v>0.2708436666666666</v>
       </c>
       <c r="N29">
-        <v>0.233048</v>
+        <v>0.812531</v>
       </c>
       <c r="O29">
-        <v>0.02817748789826661</v>
+        <v>0.1078699869087341</v>
       </c>
       <c r="P29">
-        <v>0.02817748789826661</v>
+        <v>0.107869986908734</v>
       </c>
       <c r="Q29">
-        <v>9.100401247079111</v>
+        <v>7.423784367064555</v>
       </c>
       <c r="R29">
-        <v>81.90361122371201</v>
+        <v>66.814059303581</v>
       </c>
       <c r="S29">
-        <v>0.01649791232936244</v>
+        <v>0.05559186451357752</v>
       </c>
       <c r="T29">
-        <v>0.01649791232936244</v>
+        <v>0.05559186451357751</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>117.1484146666667</v>
+        <v>27.40985033333333</v>
       </c>
       <c r="H30">
-        <v>351.445244</v>
+        <v>82.229551</v>
       </c>
       <c r="I30">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="J30">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.3170793333333333</v>
+        <v>1.017517666666667</v>
       </c>
       <c r="N30">
-        <v>0.9512379999999999</v>
+        <v>3.052553</v>
       </c>
       <c r="O30">
-        <v>0.1150127751938285</v>
+        <v>0.4052508176896844</v>
       </c>
       <c r="P30">
-        <v>0.1150127751938284</v>
+        <v>0.4052508176896843</v>
       </c>
       <c r="Q30">
-        <v>37.14534122356356</v>
+        <v>27.89000695485589</v>
       </c>
       <c r="R30">
-        <v>334.308071012072</v>
+        <v>251.010062593703</v>
       </c>
       <c r="S30">
-        <v>0.06733995197709515</v>
+        <v>0.2088500165489251</v>
       </c>
       <c r="T30">
-        <v>0.06733995197709514</v>
+        <v>0.208850016548925</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>117.1484146666667</v>
+        <v>27.40985033333333</v>
       </c>
       <c r="H31">
-        <v>351.445244</v>
+        <v>82.229551</v>
       </c>
       <c r="I31">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="J31">
-        <v>0.5854997574278913</v>
+        <v>0.5153598893139045</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>1.471239</v>
+        <v>0.2230033333333333</v>
       </c>
       <c r="N31">
-        <v>4.413717</v>
+        <v>0.66901</v>
       </c>
       <c r="O31">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472224</v>
       </c>
       <c r="P31">
-        <v>0.5336559736786997</v>
+        <v>0.08881642662472222</v>
       </c>
       <c r="Q31">
-        <v>172.353316445772</v>
+        <v>6.112487990501111</v>
       </c>
       <c r="R31">
-        <v>1551.179848011948</v>
+        <v>55.01239191451</v>
       </c>
       <c r="S31">
-        <v>0.3124554431388238</v>
+        <v>0.04577242379457337</v>
       </c>
       <c r="T31">
-        <v>0.3124554431388238</v>
+        <v>0.04577242379457337</v>
       </c>
     </row>
   </sheetData>
